--- a/natmiOut/OldD4/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.3365488340753</v>
+        <v>17.404364</v>
       </c>
       <c r="H2">
-        <v>10.3365488340753</v>
+        <v>52.213092</v>
       </c>
       <c r="I2">
-        <v>0.02394384126647741</v>
+        <v>0.03673162149179448</v>
       </c>
       <c r="J2">
-        <v>0.02394384126647741</v>
+        <v>0.03917989134808626</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.63196872871467</v>
+        <v>3.945699666666667</v>
       </c>
       <c r="N2">
-        <v>3.63196872871467</v>
+        <v>11.837099</v>
       </c>
       <c r="O2">
-        <v>0.5920383991811387</v>
+        <v>0.5217739053606055</v>
       </c>
       <c r="P2">
-        <v>0.5920383991811387</v>
+        <v>0.5347497223273059</v>
       </c>
       <c r="Q2">
-        <v>37.54202212819357</v>
+        <v>68.67239323334533</v>
       </c>
       <c r="R2">
-        <v>37.54202212819357</v>
+        <v>618.051539100108</v>
       </c>
       <c r="S2">
-        <v>0.01417567345365257</v>
+        <v>0.01916560159600116</v>
       </c>
       <c r="T2">
-        <v>0.01417567345365257</v>
+        <v>0.02095143601920314</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.3365488340753</v>
+        <v>17.404364</v>
       </c>
       <c r="H3">
-        <v>10.3365488340753</v>
+        <v>52.213092</v>
       </c>
       <c r="I3">
-        <v>0.02394384126647741</v>
+        <v>0.03673162149179448</v>
       </c>
       <c r="J3">
-        <v>0.02394384126647741</v>
+        <v>0.03917989134808626</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.50271566631465</v>
+        <v>0.179436</v>
       </c>
       <c r="N3">
-        <v>2.50271566631465</v>
+        <v>0.538308</v>
       </c>
       <c r="O3">
-        <v>0.4079616008188615</v>
+        <v>0.02372837022372263</v>
       </c>
       <c r="P3">
-        <v>0.4079616008188615</v>
+        <v>0.02431846295503378</v>
       </c>
       <c r="Q3">
-        <v>25.86944270266668</v>
+        <v>3.122969458704</v>
       </c>
       <c r="R3">
-        <v>25.86944270266668</v>
+        <v>28.106725128336</v>
       </c>
       <c r="S3">
-        <v>0.009768167812824838</v>
+        <v>0.0008715815136749462</v>
       </c>
       <c r="T3">
-        <v>0.009768167812824838</v>
+        <v>0.0009527947363306843</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>163.630264649244</v>
+        <v>17.404364</v>
       </c>
       <c r="H4">
-        <v>163.630264649244</v>
+        <v>52.213092</v>
       </c>
       <c r="I4">
-        <v>0.3790372537337974</v>
+        <v>0.03673162149179448</v>
       </c>
       <c r="J4">
-        <v>0.3790372537337974</v>
+        <v>0.03917989134808626</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.63196872871467</v>
+        <v>2.886464333333334</v>
       </c>
       <c r="N4">
-        <v>3.63196872871467</v>
+        <v>8.659393000000001</v>
       </c>
       <c r="O4">
-        <v>0.5920383991811387</v>
+        <v>0.3817020795097085</v>
       </c>
       <c r="P4">
-        <v>0.5920383991811387</v>
+        <v>0.3911944981006763</v>
       </c>
       <c r="Q4">
-        <v>594.3000042773598</v>
+        <v>50.23707593035068</v>
       </c>
       <c r="R4">
-        <v>594.3000042773598</v>
+        <v>452.1336833731561</v>
       </c>
       <c r="S4">
-        <v>0.2244046089305725</v>
+        <v>0.01402053630718145</v>
       </c>
       <c r="T4">
-        <v>0.2244046089305725</v>
+        <v>0.01532695793155364</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>163.630264649244</v>
+        <v>17.404364</v>
       </c>
       <c r="H5">
-        <v>163.630264649244</v>
+        <v>52.213092</v>
       </c>
       <c r="I5">
-        <v>0.3790372537337974</v>
+        <v>0.03673162149179448</v>
       </c>
       <c r="J5">
-        <v>0.3790372537337974</v>
+        <v>0.03917989134808626</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>2.50271566631465</v>
+        <v>0.5504869999999999</v>
       </c>
       <c r="N5">
-        <v>2.50271566631465</v>
+        <v>1.100974</v>
       </c>
       <c r="O5">
-        <v>0.4079616008188615</v>
+        <v>0.0727956449059631</v>
       </c>
       <c r="P5">
-        <v>0.4079616008188615</v>
+        <v>0.04973731661698388</v>
       </c>
       <c r="Q5">
-        <v>409.5200268208752</v>
+        <v>9.580876125268</v>
       </c>
       <c r="R5">
-        <v>409.5200268208752</v>
+        <v>57.485256751608</v>
       </c>
       <c r="S5">
-        <v>0.154632644803225</v>
+        <v>0.002673902074936914</v>
       </c>
       <c r="T5">
-        <v>0.154632644803225</v>
+        <v>0.001948702660998794</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,181 +782,181 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>85.4032467053773</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H6">
-        <v>85.4032467053773</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I6">
-        <v>0.1978302251148119</v>
+        <v>0.376379213879422</v>
       </c>
       <c r="J6">
-        <v>0.1978302251148119</v>
+        <v>0.4014659877938717</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.63196872871467</v>
+        <v>3.945699666666667</v>
       </c>
       <c r="N6">
-        <v>3.63196872871467</v>
+        <v>11.837099</v>
       </c>
       <c r="O6">
-        <v>0.5920383991811387</v>
+        <v>0.5217739053606055</v>
       </c>
       <c r="P6">
-        <v>0.5920383991811387</v>
+        <v>0.5347497223273059</v>
       </c>
       <c r="Q6">
-        <v>310.1819213646345</v>
+        <v>703.6678570304614</v>
       </c>
       <c r="R6">
-        <v>310.1819213646345</v>
+        <v>6333.010713274152</v>
       </c>
       <c r="S6">
-        <v>0.1171230897866175</v>
+        <v>0.1963848523224206</v>
       </c>
       <c r="T6">
-        <v>0.1171230897866175</v>
+        <v>0.2146838254966305</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>85.4032467053773</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H7">
-        <v>85.4032467053773</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I7">
-        <v>0.1978302251148119</v>
+        <v>0.376379213879422</v>
       </c>
       <c r="J7">
-        <v>0.1978302251148119</v>
+        <v>0.4014659877938717</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>2.50271566631465</v>
+        <v>0.179436</v>
       </c>
       <c r="N7">
-        <v>2.50271566631465</v>
+        <v>0.538308</v>
       </c>
       <c r="O7">
-        <v>0.4079616008188615</v>
+        <v>0.02372837022372263</v>
       </c>
       <c r="P7">
-        <v>0.4079616008188615</v>
+        <v>0.02431846295503378</v>
       </c>
       <c r="Q7">
-        <v>213.7400434836828</v>
+        <v>32.00024235518801</v>
       </c>
       <c r="R7">
-        <v>213.7400434836828</v>
+        <v>288.002181196692</v>
       </c>
       <c r="S7">
-        <v>0.0807071353281944</v>
+        <v>0.008930865331444608</v>
       </c>
       <c r="T7">
-        <v>0.0807071353281944</v>
+        <v>0.009763035751871312</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>100.955319483884</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H8">
-        <v>100.955319483884</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I8">
-        <v>0.2338554370062025</v>
+        <v>0.376379213879422</v>
       </c>
       <c r="J8">
-        <v>0.2338554370062025</v>
+        <v>0.4014659877938717</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.63196872871467</v>
+        <v>2.886464333333334</v>
       </c>
       <c r="N8">
-        <v>3.63196872871467</v>
+        <v>8.659393000000001</v>
       </c>
       <c r="O8">
-        <v>0.5920383991811387</v>
+        <v>0.3817020795097085</v>
       </c>
       <c r="P8">
-        <v>0.5920383991811387</v>
+        <v>0.3911944981006763</v>
       </c>
       <c r="Q8">
-        <v>366.6665633628655</v>
+        <v>514.7660347771509</v>
       </c>
       <c r="R8">
-        <v>366.6665633628655</v>
+        <v>4632.894312994358</v>
       </c>
       <c r="S8">
-        <v>0.1384513985649577</v>
+        <v>0.1436647286220047</v>
       </c>
       <c r="T8">
-        <v>0.1384513985649577</v>
+        <v>0.1570512855995159</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>100.955319483884</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H9">
-        <v>100.955319483884</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I9">
-        <v>0.2338554370062025</v>
+        <v>0.376379213879422</v>
       </c>
       <c r="J9">
-        <v>0.2338554370062025</v>
+        <v>0.4014659877938717</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>2.50271566631465</v>
+        <v>0.5504869999999999</v>
       </c>
       <c r="N9">
-        <v>2.50271566631465</v>
+        <v>1.100974</v>
       </c>
       <c r="O9">
-        <v>0.4079616008188615</v>
+        <v>0.0727956449059631</v>
       </c>
       <c r="P9">
-        <v>0.4079616008188615</v>
+        <v>0.04973731661698388</v>
       </c>
       <c r="Q9">
-        <v>252.6624596701171</v>
+        <v>98.17270454858767</v>
       </c>
       <c r="R9">
-        <v>252.6624596701171</v>
+        <v>589.0362272915261</v>
       </c>
       <c r="S9">
-        <v>0.09540403844124477</v>
+        <v>0.02739876760355195</v>
       </c>
       <c r="T9">
-        <v>0.09540403844124477</v>
+        <v>0.01996784094585398</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,114 +1030,734 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>71.3743095726448</v>
+        <v>86.61737833333332</v>
       </c>
       <c r="H10">
-        <v>71.3743095726448</v>
+        <v>259.852135</v>
       </c>
       <c r="I10">
-        <v>0.1653332428787108</v>
+        <v>0.1828045400309692</v>
       </c>
       <c r="J10">
-        <v>0.1653332428787108</v>
+        <v>0.1949889965502951</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.63196872871467</v>
+        <v>3.945699666666667</v>
       </c>
       <c r="N10">
-        <v>3.63196872871467</v>
+        <v>11.837099</v>
       </c>
       <c r="O10">
-        <v>0.5920383991811387</v>
+        <v>0.5217739053606055</v>
       </c>
       <c r="P10">
-        <v>0.5920383991811387</v>
+        <v>0.5347497223273059</v>
       </c>
       <c r="Q10">
-        <v>259.229260401446</v>
+        <v>341.7661608173738</v>
       </c>
       <c r="R10">
-        <v>259.229260401446</v>
+        <v>3075.895447356365</v>
       </c>
       <c r="S10">
-        <v>0.09788362844533831</v>
+        <v>0.09538263876960795</v>
       </c>
       <c r="T10">
-        <v>0.09788362844533831</v>
+        <v>0.1042703117621503</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>86.61737833333332</v>
+      </c>
+      <c r="H11">
+        <v>259.852135</v>
+      </c>
+      <c r="I11">
+        <v>0.1828045400309692</v>
+      </c>
+      <c r="J11">
+        <v>0.1949889965502951</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.179436</v>
+      </c>
+      <c r="N11">
+        <v>0.538308</v>
+      </c>
+      <c r="O11">
+        <v>0.02372837022372263</v>
+      </c>
+      <c r="P11">
+        <v>0.02431846295503378</v>
+      </c>
+      <c r="Q11">
+        <v>15.54227589862</v>
+      </c>
+      <c r="R11">
+        <v>139.88048308758</v>
+      </c>
+      <c r="S11">
+        <v>0.004337653804432161</v>
+      </c>
+      <c r="T11">
+        <v>0.004741832689247562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>86.61737833333332</v>
+      </c>
+      <c r="H12">
+        <v>259.852135</v>
+      </c>
+      <c r="I12">
+        <v>0.1828045400309692</v>
+      </c>
+      <c r="J12">
+        <v>0.1949889965502951</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.886464333333334</v>
+      </c>
+      <c r="N12">
+        <v>8.659393000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.3817020795097085</v>
+      </c>
+      <c r="P12">
+        <v>0.3911944981006763</v>
+      </c>
+      <c r="Q12">
+        <v>250.0179732060061</v>
+      </c>
+      <c r="R12">
+        <v>2250.161758854055</v>
+      </c>
+      <c r="S12">
+        <v>0.06977687307363671</v>
+      </c>
+      <c r="T12">
+        <v>0.07627862264064721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>86.61737833333332</v>
+      </c>
+      <c r="H13">
+        <v>259.852135</v>
+      </c>
+      <c r="I13">
+        <v>0.1828045400309692</v>
+      </c>
+      <c r="J13">
+        <v>0.1949889965502951</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.5504869999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.100974</v>
+      </c>
+      <c r="O13">
+        <v>0.0727956449059631</v>
+      </c>
+      <c r="P13">
+        <v>0.04973731661698388</v>
+      </c>
+      <c r="Q13">
+        <v>47.68174074658165</v>
+      </c>
+      <c r="R13">
+        <v>286.09044447949</v>
+      </c>
+      <c r="S13">
+        <v>0.01330737438329235</v>
+      </c>
+      <c r="T13">
+        <v>0.009698229458250007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>71.3743095726448</v>
-      </c>
-      <c r="H11">
-        <v>71.3743095726448</v>
-      </c>
-      <c r="I11">
-        <v>0.1653332428787108</v>
-      </c>
-      <c r="J11">
-        <v>0.1653332428787108</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.50271566631465</v>
-      </c>
-      <c r="N11">
-        <v>2.50271566631465</v>
-      </c>
-      <c r="O11">
-        <v>0.4079616008188615</v>
-      </c>
-      <c r="P11">
-        <v>0.4079616008188615</v>
-      </c>
-      <c r="Q11">
-        <v>178.6296027398498</v>
-      </c>
-      <c r="R11">
-        <v>178.6296027398498</v>
-      </c>
-      <c r="S11">
-        <v>0.06744961443337247</v>
-      </c>
-      <c r="T11">
-        <v>0.06744961443337247</v>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>102.6404036666667</v>
+      </c>
+      <c r="H14">
+        <v>307.921211</v>
+      </c>
+      <c r="I14">
+        <v>0.2166208691825219</v>
+      </c>
+      <c r="J14">
+        <v>0.231059282808824</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.945699666666667</v>
+      </c>
+      <c r="N14">
+        <v>11.837099</v>
+      </c>
+      <c r="O14">
+        <v>0.5217739053606055</v>
+      </c>
+      <c r="P14">
+        <v>0.5347497223273059</v>
+      </c>
+      <c r="Q14">
+        <v>404.9882065340987</v>
+      </c>
+      <c r="R14">
+        <v>3644.893858806889</v>
+      </c>
+      <c r="S14">
+        <v>0.1130271168959733</v>
+      </c>
+      <c r="T14">
+        <v>0.1235588873231651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>102.6404036666667</v>
+      </c>
+      <c r="H15">
+        <v>307.921211</v>
+      </c>
+      <c r="I15">
+        <v>0.2166208691825219</v>
+      </c>
+      <c r="J15">
+        <v>0.231059282808824</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.179436</v>
+      </c>
+      <c r="N15">
+        <v>0.538308</v>
+      </c>
+      <c r="O15">
+        <v>0.02372837022372263</v>
+      </c>
+      <c r="P15">
+        <v>0.02431846295503378</v>
+      </c>
+      <c r="Q15">
+        <v>18.417383472332</v>
+      </c>
+      <c r="R15">
+        <v>165.756451250988</v>
+      </c>
+      <c r="S15">
+        <v>0.005140060182147467</v>
+      </c>
+      <c r="T15">
+        <v>0.005619006609403059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>102.6404036666667</v>
+      </c>
+      <c r="H16">
+        <v>307.921211</v>
+      </c>
+      <c r="I16">
+        <v>0.2166208691825219</v>
+      </c>
+      <c r="J16">
+        <v>0.231059282808824</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.886464333333334</v>
+      </c>
+      <c r="N16">
+        <v>8.659393000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.3817020795097085</v>
+      </c>
+      <c r="P16">
+        <v>0.3911944981006763</v>
+      </c>
+      <c r="Q16">
+        <v>296.2678643427693</v>
+      </c>
+      <c r="R16">
+        <v>2666.410779084923</v>
+      </c>
+      <c r="S16">
+        <v>0.08268463623216915</v>
+      </c>
+      <c r="T16">
+        <v>0.09038912016990011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>102.6404036666667</v>
+      </c>
+      <c r="H17">
+        <v>307.921211</v>
+      </c>
+      <c r="I17">
+        <v>0.2166208691825219</v>
+      </c>
+      <c r="J17">
+        <v>0.231059282808824</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.5504869999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.100974</v>
+      </c>
+      <c r="O17">
+        <v>0.0727956449059631</v>
+      </c>
+      <c r="P17">
+        <v>0.04973731661698388</v>
+      </c>
+      <c r="Q17">
+        <v>56.50220789325233</v>
+      </c>
+      <c r="R17">
+        <v>339.0132473595139</v>
+      </c>
+      <c r="S17">
+        <v>0.01576905587223195</v>
+      </c>
+      <c r="T17">
+        <v>0.0114922687063557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>88.82503149999999</v>
+      </c>
+      <c r="H18">
+        <v>177.650063</v>
+      </c>
+      <c r="I18">
+        <v>0.1874637554152924</v>
+      </c>
+      <c r="J18">
+        <v>0.1333058414989229</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.945699666666667</v>
+      </c>
+      <c r="N18">
+        <v>11.837099</v>
+      </c>
+      <c r="O18">
+        <v>0.5217739053606055</v>
+      </c>
+      <c r="P18">
+        <v>0.5347497223273059</v>
+      </c>
+      <c r="Q18">
+        <v>350.4768971812061</v>
+      </c>
+      <c r="R18">
+        <v>2102.861383087237</v>
+      </c>
+      <c r="S18">
+        <v>0.09781369577660251</v>
+      </c>
+      <c r="T18">
+        <v>0.07128526172615686</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>88.82503149999999</v>
+      </c>
+      <c r="H19">
+        <v>177.650063</v>
+      </c>
+      <c r="I19">
+        <v>0.1874637554152924</v>
+      </c>
+      <c r="J19">
+        <v>0.1333058414989229</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.179436</v>
+      </c>
+      <c r="N19">
+        <v>0.538308</v>
+      </c>
+      <c r="O19">
+        <v>0.02372837022372263</v>
+      </c>
+      <c r="P19">
+        <v>0.02431846295503378</v>
+      </c>
+      <c r="Q19">
+        <v>15.938408352234</v>
+      </c>
+      <c r="R19">
+        <v>95.630450113404</v>
+      </c>
+      <c r="S19">
+        <v>0.004448209392023447</v>
+      </c>
+      <c r="T19">
+        <v>0.003241793168181161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>88.82503149999999</v>
+      </c>
+      <c r="H20">
+        <v>177.650063</v>
+      </c>
+      <c r="I20">
+        <v>0.1874637554152924</v>
+      </c>
+      <c r="J20">
+        <v>0.1333058414989229</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.886464333333334</v>
+      </c>
+      <c r="N20">
+        <v>8.659393000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.3817020795097085</v>
+      </c>
+      <c r="P20">
+        <v>0.3911944981006763</v>
+      </c>
+      <c r="Q20">
+        <v>256.3902853319599</v>
+      </c>
+      <c r="R20">
+        <v>1538.341711991759</v>
+      </c>
+      <c r="S20">
+        <v>0.07155530527471651</v>
+      </c>
+      <c r="T20">
+        <v>0.05214851175905944</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>88.82503149999999</v>
+      </c>
+      <c r="H21">
+        <v>177.650063</v>
+      </c>
+      <c r="I21">
+        <v>0.1874637554152924</v>
+      </c>
+      <c r="J21">
+        <v>0.1333058414989229</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.5504869999999999</v>
+      </c>
+      <c r="N21">
+        <v>1.100974</v>
+      </c>
+      <c r="O21">
+        <v>0.0727956449059631</v>
+      </c>
+      <c r="P21">
+        <v>0.04973731661698388</v>
+      </c>
+      <c r="Q21">
+        <v>48.89702511534049</v>
+      </c>
+      <c r="R21">
+        <v>195.588100461362</v>
+      </c>
+      <c r="S21">
+        <v>0.01364654497194995</v>
+      </c>
+      <c r="T21">
+        <v>0.006630274845525396</v>
       </c>
     </row>
   </sheetData>
